--- a/doc/0.1.0/Desempeño del proceso 2013-11.xlsx
+++ b/doc/0.1.0/Desempeño del proceso 2013-11.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\rodrigo.esparza\Documentos\GitHub\LMEC\doc\0.1.0\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="150" windowWidth="15120" windowHeight="7995" activeTab="1"/>
   </bookViews>
@@ -13,7 +18,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">LMEC!$A$1:$K$272</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -290,6 +295,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -297,7 +305,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="es-MX"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -329,7 +337,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -369,6 +376,13 @@
           </c:tx>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
             <c:showCatName val="0"/>
@@ -376,6 +390,11 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:cat>
             <c:strRef>
@@ -417,6 +436,13 @@
           </c:tx>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
             <c:showCatName val="0"/>
@@ -424,6 +450,11 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:cat>
             <c:strRef>
@@ -459,21 +490,22 @@
         </c:dLbls>
         <c:gapWidth val="75"/>
         <c:shape val="box"/>
-        <c:axId val="92060672"/>
-        <c:axId val="77686464"/>
+        <c:axId val="210481160"/>
+        <c:axId val="368978096"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="92060672"/>
+        <c:axId val="210481160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="77686464"/>
+        <c:crossAx val="368978096"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -481,7 +513,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="77686464"/>
+        <c:axId val="368978096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -497,14 +529,13 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="92060672"/>
+        <c:crossAx val="210481160"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -522,7 +553,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="es-MX"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -534,7 +565,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -613,21 +643,22 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="box"/>
-        <c:axId val="111804928"/>
-        <c:axId val="77688768"/>
+        <c:axId val="368978880"/>
+        <c:axId val="368979272"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="111804928"/>
+        <c:axId val="368978880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="77688768"/>
+        <c:crossAx val="368979272"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -635,7 +666,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="77688768"/>
+        <c:axId val="368979272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -646,14 +677,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="111804928"/>
+        <c:crossAx val="368978880"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -671,7 +701,7 @@
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="es-MX"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -745,6 +775,28 @@
             </c:strRef>
           </c:tx>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>LMEC!$C$4:$C$9</c:f>
@@ -814,6 +866,28 @@
             </c:strRef>
           </c:tx>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>LMEC!$C$4:$C$9</c:f>
@@ -879,21 +953,22 @@
         <c:gapWidth val="95"/>
         <c:gapDepth val="95"/>
         <c:shape val="box"/>
-        <c:axId val="111806464"/>
-        <c:axId val="77690496"/>
+        <c:axId val="368980056"/>
+        <c:axId val="368980448"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="111806464"/>
+        <c:axId val="368980056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="77690496"/>
+        <c:crossAx val="368980448"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -901,7 +976,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="77690496"/>
+        <c:axId val="368980448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -911,7 +986,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="111806464"/>
+        <c:crossAx val="368980056"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -936,7 +1011,7 @@
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="es-MX"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -956,7 +1031,6 @@
       <c:rotX val="30"/>
       <c:rotY val="0"/>
       <c:rAngAx val="0"/>
-      <c:perspective val="30"/>
     </c:view3D>
     <c:floor>
       <c:thickness val="0"/>
@@ -986,6 +1060,13 @@
             </c:strRef>
           </c:tx>
           <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -993,6 +1074,11 @@
             <c:showPercent val="1"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="1"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:cat>
             <c:strRef>
@@ -1251,7 +1337,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1286,7 +1372,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2424,7 +2510,7 @@
   <dimension ref="B2:L101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:K10"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2504,7 +2590,7 @@
         <v>185</v>
       </c>
       <c r="G4" s="7">
-        <f>F4/$F$10</f>
+        <f t="shared" ref="G4:G9" si="0">F4/$F$10</f>
         <v>0.4083885209713024</v>
       </c>
       <c r="H4" s="7">
@@ -2515,7 +2601,7 @@
         <v>3.0000000000000027E-2</v>
       </c>
       <c r="J4" s="6">
-        <f t="shared" ref="J4:J9" si="0">F4*H4</f>
+        <f t="shared" ref="J4:J9" si="1">F4*H4</f>
         <v>179.45</v>
       </c>
       <c r="K4" s="6">
@@ -2540,22 +2626,22 @@
         <v>133</v>
       </c>
       <c r="G5" s="7">
-        <f>F5/$F$10</f>
+        <f t="shared" si="0"/>
         <v>0.29359823399558499</v>
       </c>
       <c r="H5" s="7">
         <v>0.8</v>
       </c>
       <c r="I5" s="7">
-        <f t="shared" ref="I5:I6" si="1">1-H5</f>
+        <f t="shared" ref="I5:I6" si="2">1-H5</f>
         <v>0.19999999999999996</v>
       </c>
       <c r="J5" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>106.4</v>
       </c>
       <c r="K5" s="6">
-        <f t="shared" ref="K5:K6" si="2">F5-J5</f>
+        <f t="shared" ref="K5:K6" si="3">F5-J5</f>
         <v>26.599999999999994</v>
       </c>
     </row>
@@ -2576,22 +2662,22 @@
         <v>30</v>
       </c>
       <c r="G6" s="7">
-        <f>F6/$F$10</f>
+        <f t="shared" si="0"/>
         <v>6.6225165562913912E-2</v>
       </c>
       <c r="H6" s="7">
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="I6" s="7">
+        <f t="shared" si="2"/>
+        <v>0.92999999999999994</v>
+      </c>
+      <c r="J6" s="6">
         <f t="shared" si="1"/>
-        <v>0.92999999999999994</v>
-      </c>
-      <c r="J6" s="6">
-        <f t="shared" si="0"/>
         <v>2.1</v>
       </c>
       <c r="K6" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>27.9</v>
       </c>
     </row>
@@ -2612,22 +2698,22 @@
         <v>25</v>
       </c>
       <c r="G7" s="7">
-        <f>F7/$F$10</f>
+        <f t="shared" si="0"/>
         <v>5.518763796909492E-2</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
       </c>
       <c r="I7" s="7">
-        <f t="shared" ref="I7:I10" si="3">1-H7</f>
+        <f t="shared" ref="I7:I10" si="4">1-H7</f>
         <v>1</v>
       </c>
       <c r="J7" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K7" s="6">
-        <f t="shared" ref="K7:K10" si="4">F7-J7</f>
+        <f t="shared" ref="K7:K10" si="5">F7-J7</f>
         <v>25</v>
       </c>
     </row>
@@ -2648,22 +2734,22 @@
         <v>40</v>
       </c>
       <c r="G8" s="7">
-        <f>F8/$F$10</f>
+        <f t="shared" si="0"/>
         <v>8.8300220750551883E-2</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
       </c>
       <c r="I8" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="J8" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K8" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>40</v>
       </c>
     </row>
@@ -2684,22 +2770,22 @@
         <v>40</v>
       </c>
       <c r="G9" s="7">
-        <f>F9/$F$10</f>
+        <f t="shared" si="0"/>
         <v>8.8300220750551883E-2</v>
       </c>
       <c r="H9" s="7">
         <v>0</v>
       </c>
       <c r="I9" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="J9" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K9" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>40</v>
       </c>
     </row>
@@ -2729,7 +2815,7 @@
         <v>0.63565121412803538</v>
       </c>
       <c r="I10" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.36434878587196462</v>
       </c>
       <c r="J10" s="6">
@@ -2737,7 +2823,7 @@
         <v>287.95000000000005</v>
       </c>
       <c r="K10" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>165.04999999999995</v>
       </c>
     </row>
